--- a/output/Func_annot_DAVID/GOW_BP_DAVID.xlsx
+++ b/output/Func_annot_DAVID/GOW_BP_DAVID.xlsx
@@ -1,69 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{403A2377-E95C-9E47-8DA2-0F60086D75C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43FBB6A4-7DDE-9A4D-8B5C-59438B92E015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{C72D97A4-C572-B341-BCAF-DB8047720EF3}"/>
+    <workbookView xWindow="680" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{A3A9F16A-B416-2146-A6A1-1FDF9C0C3B57}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GOW_BP_DAVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="GOW_BP_DAVID" localSheetId="0">Sheet1!$A$1:$M$19</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{A2692259-00BE-854E-A330-DE9C4792E77F}" name="GOW_BP_DAVID" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/graceleuchtenberger/Desktop/GOW_BP_DAVID">
-      <textFields count="13">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>Category</t>
   </si>
@@ -101,82 +58,85 @@
     <t>Benjamini</t>
   </si>
   <si>
-    <t>FDR</t>
+    <t>FDR\</t>
   </si>
   <si>
     <t>GOTERM_BP_DIRECT</t>
   </si>
   <si>
-    <t>GO:0050808~synapse organization</t>
-  </si>
-  <si>
-    <t>Q96RW7, Q5PYH7, D3YXG0, A2ASS6, P98160</t>
+    <t>GO:0008380~RNA splicing</t>
+  </si>
+  <si>
+    <t>Q5R8W6, Q5NVM9, Q8VE97, Q52KN9, Q4R979, Q7TMK9, P26599, Q5NVN8</t>
+  </si>
+  <si>
+    <t>1.0\</t>
+  </si>
+  <si>
+    <t>GO:0006470~protein dephosphorylation</t>
+  </si>
+  <si>
+    <t>P41499, Q9DBR7, P29074, Q9DAK9, Q15256</t>
   </si>
   <si>
     <t>GO:0007156~homophilic cell adhesion via plasma membrane adhesion molecules</t>
   </si>
   <si>
-    <t>Q96RW7, Q9VAF5, D3YXG0, A2ASS6, P98160</t>
+    <t>Q96RW7, Q9VAF5, D3YXG0, A2ASS6</t>
+  </si>
+  <si>
+    <t>GO:0015816~glycine transport</t>
+  </si>
+  <si>
+    <t>Q761V0, Q9H1V8</t>
+  </si>
+  <si>
+    <t>GO:0051276~chromosome organization</t>
+  </si>
+  <si>
+    <t>O93309, P25867</t>
+  </si>
+  <si>
+    <t>GO:0045892~negative regulation of DNA-templated transcription</t>
+  </si>
+  <si>
+    <t>Q9QXE7, Q5NVM9, Q8BZZ3, Q24537, Q98TX3, B5DE69, Q5VUA4</t>
+  </si>
+  <si>
+    <t>GO:0031647~regulation of protein stability</t>
+  </si>
+  <si>
+    <t>Q5NVM9, Q9R1S4, P25867, Q9WTN3</t>
+  </si>
+  <si>
+    <t>GO:2000330~positive regulation of T-helper 17 cell lineage commitment</t>
+  </si>
+  <si>
+    <t>Q5TJG6</t>
+  </si>
+  <si>
+    <t>GO:0141166~chromosomal 5-methylcytosine DNA demethylation pathway</t>
+  </si>
+  <si>
+    <t>Q7TMK9, Q99020</t>
+  </si>
+  <si>
+    <t>GO:0055071~manganese ion homeostasis</t>
+  </si>
+  <si>
+    <t>A4IGY6, Q3UVU3</t>
+  </si>
+  <si>
+    <t>GO:0006357~regulation of transcription by RNA polymerase II</t>
+  </si>
+  <si>
+    <t>Q9QXE7, O09015, Q32LN0, Q5TJG6, O95238, Q24537, Q96I24, Q9R1S4, P31396, P41778, Q0VC65, Q9WTN3</t>
   </si>
   <si>
     <t>GO:0006629~lipid metabolic process</t>
   </si>
   <si>
-    <t>P41499, P98156, Q9QW07, P08519, P98160, Q2KIA4, Q9WTN3</t>
-  </si>
-  <si>
-    <t>GO:0006357~regulation of transcription by RNA polymerase II</t>
-  </si>
-  <si>
-    <t>Q9QXE7, Q32LN0, Q5TJG6, O95238, Q96I24, Q9R1S4, P10984, P31396, Q0VC65, Q9WTN3, O09015, Q24537, P41778</t>
-  </si>
-  <si>
-    <t>GO:0006470~protein dephosphorylation</t>
-  </si>
-  <si>
-    <t>P41499, Q9DBR7, P29074, Q9DAK9, Q15256</t>
-  </si>
-  <si>
-    <t>GO:0008380~RNA splicing</t>
-  </si>
-  <si>
-    <t>Q5R8W6, Q5NVM9, Q8VE97, Q52KN9, Q4R979, Q7TMK9, P26599, Q5NVN8</t>
-  </si>
-  <si>
-    <t>GO:0031647~regulation of protein stability</t>
-  </si>
-  <si>
-    <t>Q5NVM9, Q9R1S4, P25867, Q9WTN3</t>
-  </si>
-  <si>
-    <t>GO:0051276~chromosome organization</t>
-  </si>
-  <si>
-    <t>O93309, P25867</t>
-  </si>
-  <si>
-    <t>GO:0015816~glycine transport</t>
-  </si>
-  <si>
-    <t>Q761V0, Q9H1V8</t>
-  </si>
-  <si>
-    <t>GO:0045892~negative regulation of DNA-templated transcription</t>
-  </si>
-  <si>
-    <t>Q9QXE7, Q5NVM9, Q8BZZ3, Q24537, Q98TX3, B5DE69, Q5VUA4</t>
-  </si>
-  <si>
-    <t>GO:0055071~manganese ion homeostasis</t>
-  </si>
-  <si>
-    <t>A4IGY6, Q3UVU3</t>
-  </si>
-  <si>
-    <t>GO:2000330~positive regulation of T-helper 17 cell lineage commitment</t>
-  </si>
-  <si>
-    <t>Q5TJG6</t>
+    <t>P41499, Q9QW07, P08519, P98160, Q2KIA4</t>
   </si>
   <si>
     <t>GO:0045727~positive regulation of translation</t>
@@ -185,10 +145,10 @@
     <t>Q92615, Q4R979, Q7TMK9</t>
   </si>
   <si>
-    <t>GO:0034499~late endosome to Golgi transport</t>
-  </si>
-  <si>
-    <t>O14715</t>
+    <t>GO:0000278~mitotic cell cycle</t>
+  </si>
+  <si>
+    <t>Q9DBR7, Q96L03, P32882, P25867</t>
   </si>
   <si>
     <t>GO:0046822~regulation of nucleocytoplasmic transport</t>
@@ -197,29 +157,26 @@
     <t>Q9DBR7, Q4R979</t>
   </si>
   <si>
-    <t>GO:0000278~mitotic cell cycle</t>
-  </si>
-  <si>
-    <t>Q9DBR7, Q96L03, P32882, P25867</t>
-  </si>
-  <si>
-    <t>GO:0006334~nucleosome assembly</t>
-  </si>
-  <si>
-    <t>Q5TJG6, Q5ZM33</t>
-  </si>
-  <si>
     <t>GO:0032869~cellular response to insulin stimulus</t>
   </si>
   <si>
     <t>A4IGY6, Q9R1S4, Q9Y4I1</t>
+  </si>
+  <si>
+    <t>GO:0006397~mRNA processing</t>
+  </si>
+  <si>
+    <t>Q5NVM9, Q8VE97, Q52KN9, Q4R979, Q7TMK9, P26599, Q5NVN8</t>
+  </si>
+  <si>
+    <t>1.0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,16 +184,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -244,15 +501,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -265,10 +711,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GOW_BP_DAVID" connectionId="1" xr16:uid="{37149D41-840B-A346-AF1A-6B62E05DEC1E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,25 +1029,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D41AF6-2D85-6E4B-BEAF-2B345D42951C}">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BF7712-D318-B149-8895-74C6CAB94E58}">
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -657,13 +1090,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>3.6764705882352899</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="E2">
-        <v>5.9048325602116198E-3</v>
+        <v>1.36409481061898E-2</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -672,22 +1105,22 @@
         <v>114</v>
       </c>
       <c r="H2">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="I2">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J2">
-        <v>6.7091972355130203</v>
+        <v>3.0981840566328098</v>
       </c>
       <c r="K2">
-        <v>0.98601826644748503</v>
+        <v>0.999935933758896</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>1</v>
+      <c r="M2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -695,7 +1128,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -704,31 +1137,31 @@
         <v>3.6764705882352899</v>
       </c>
       <c r="E3">
-        <v>7.3013365272685303E-3</v>
+        <v>1.39893003789274E-2</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>114</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I3">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J3">
-        <v>6.3258145363408502</v>
+        <v>5.25584795321637</v>
       </c>
       <c r="K3">
-        <v>0.994925746085212</v>
+        <v>0.99995002138008504</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1</v>
+      <c r="M3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -736,40 +1169,40 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>5.1470588235294104</v>
+        <v>2.9411764705882302</v>
       </c>
       <c r="E4">
-        <v>1.9977676399568701E-2</v>
+        <v>3.4082388944337801E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>114</v>
       </c>
       <c r="H4">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="I4">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J4">
-        <v>3.22880116959064</v>
+        <v>5.51864035087719</v>
       </c>
       <c r="K4">
-        <v>0.99999952011933102</v>
+        <v>0.99999999997412503</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>1</v>
+      <c r="M4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -777,40 +1210,40 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>10.294117647058799</v>
+        <v>1.47058823529411</v>
       </c>
       <c r="E5">
-        <v>2.2268647602505801E-2</v>
+        <v>4.44039135025062E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>114</v>
       </c>
       <c r="H5">
-        <v>314</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J5">
-        <v>1.97429880433567</v>
+        <v>44.149122807017498</v>
       </c>
       <c r="K5">
-        <v>0.99999991122522702</v>
+        <v>0.99999999999998601</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5">
-        <v>1</v>
+      <c r="M5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -818,40 +1251,40 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>3.6764705882352899</v>
+        <v>2.20588235294117</v>
       </c>
       <c r="E6">
-        <v>2.3280239553709899E-2</v>
+        <v>4.8847669411541401E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>114</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J6">
-        <v>4.5184389545291799</v>
+        <v>8.2779605263157894</v>
       </c>
       <c r="K6">
-        <v>0.99999995791266705</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>1</v>
+      <c r="M6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -859,40 +1292,40 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>5.8823529411764701</v>
+        <v>5.1470588235294104</v>
       </c>
       <c r="E7">
-        <v>2.9829448803905999E-2</v>
+        <v>5.9199500016408099E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>114</v>
       </c>
       <c r="H7">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I7">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J7">
-        <v>2.64362398533647</v>
+        <v>2.4922891907187301</v>
       </c>
       <c r="K7">
-        <v>0.99999999967079101</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>1</v>
+      <c r="M7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -900,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -909,31 +1342,31 @@
         <v>2.9411764705882302</v>
       </c>
       <c r="E8">
-        <v>3.95258931921725E-2</v>
+        <v>6.3443653020052407E-2</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>114</v>
       </c>
       <c r="H8">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I8">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J8">
-        <v>5.2094943240453997</v>
+        <v>4.3072314933675599</v>
       </c>
       <c r="K8">
-        <v>0.99999999999976397</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>1</v>
+      <c r="M8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -941,40 +1374,40 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2.20588235294117</v>
+        <v>1.47058823529411</v>
       </c>
       <c r="E9">
-        <v>4.3131966202643E-2</v>
+        <v>6.5867311986603505E-2</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>114</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J9">
-        <v>8.8561403508771903</v>
+        <v>29.432748538011602</v>
       </c>
       <c r="K9">
-        <v>0.99999999999998401</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9">
-        <v>1</v>
+      <c r="M9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -982,7 +1415,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -991,31 +1424,31 @@
         <v>1.47058823529411</v>
       </c>
       <c r="E10">
-        <v>4.4273449228776997E-2</v>
+        <v>6.5867311986603505E-2</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>114</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J10">
-        <v>44.280701754385902</v>
+        <v>29.432748538011602</v>
       </c>
       <c r="K10">
-        <v>0.99999999999999301</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>1</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1023,31 +1456,31 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>5.1470588235294104</v>
+        <v>1.47058823529411</v>
       </c>
       <c r="E11">
-        <v>5.8517142460830701E-2</v>
+        <v>6.5867311986603505E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>114</v>
       </c>
       <c r="H11">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J11">
-        <v>2.4997170345217801</v>
+        <v>29.432748538011602</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1055,8 +1488,8 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>1</v>
+      <c r="M11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1064,31 +1497,31 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>1.47058823529411</v>
+        <v>9.5588235294117592</v>
       </c>
       <c r="E12">
-        <v>6.5675966121006901E-2</v>
+        <v>6.9909422546652805E-2</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>114</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>334</v>
       </c>
       <c r="I12">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J12">
-        <v>29.5204678362573</v>
+        <v>1.71837903141086</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1096,8 +1529,8 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12">
-        <v>1</v>
+      <c r="M12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1105,31 +1538,31 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>1.47058823529411</v>
+        <v>3.6764705882352899</v>
       </c>
       <c r="E13">
-        <v>6.5675966121006901E-2</v>
+        <v>7.1411889310829799E-2</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>114</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="I13">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J13">
-        <v>29.5204678362573</v>
+        <v>3.15350877192982</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1137,8 +1570,8 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13">
-        <v>1</v>
+      <c r="M13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1146,7 +1579,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1155,22 +1588,22 @@
         <v>2.20588235294117</v>
       </c>
       <c r="E14">
-        <v>6.6313262648763194E-2</v>
+        <v>7.3010360055210499E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>114</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J14">
-        <v>6.9916897506925197</v>
+        <v>6.6223684210526299</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1178,8 +1611,8 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14">
-        <v>1</v>
+      <c r="M14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1187,31 +1620,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>1.47058823529411</v>
+        <v>2.9411764705882302</v>
       </c>
       <c r="E15">
-        <v>8.6603342894527105E-2</v>
+        <v>7.5160785228038193E-2</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>114</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="I15">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J15">
-        <v>22.140350877192901</v>
+        <v>4.01355661881977</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1219,8 +1652,8 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15">
-        <v>1</v>
+      <c r="M15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1228,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1237,10 +1670,10 @@
         <v>1.47058823529411</v>
       </c>
       <c r="E16">
-        <v>8.6603342894527105E-2</v>
+        <v>8.6852797820748506E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16">
         <v>114</v>
@@ -1249,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J16">
-        <v>22.140350877192901</v>
+        <v>22.074561403508699</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1260,8 +1693,8 @@
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16">
-        <v>1</v>
+      <c r="M16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1269,31 +1702,31 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>2.9411764705882302</v>
+        <v>2.20588235294117</v>
       </c>
       <c r="E17">
-        <v>9.5974603089498303E-2</v>
+        <v>9.3132642317518194E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17">
         <v>114</v>
       </c>
       <c r="H17">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I17">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J17">
-        <v>3.6147511636233398</v>
+        <v>5.7585812356979398</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1301,8 +1734,8 @@
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>1</v>
+      <c r="M17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1310,31 +1743,31 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>2.20588235294117</v>
+        <v>5.1470588235294104</v>
       </c>
       <c r="E18">
-        <v>9.9659953542022603E-2</v>
+        <v>9.6261874364954897E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18">
         <v>114</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="I18">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J18">
-        <v>5.5350877192982404</v>
+        <v>2.19180042304342</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1342,52 +1775,11 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>2.20588235294117</v>
-      </c>
-      <c r="E19">
-        <v>9.9659953542022603E-2</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="M18" t="s">
         <v>49</v>
-      </c>
-      <c r="G19">
-        <v>114</v>
-      </c>
-      <c r="H19">
-        <v>24</v>
-      </c>
-      <c r="I19">
-        <v>5048</v>
-      </c>
-      <c r="J19">
-        <v>5.5350877192982404</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>